--- a/Random_forest_Efrain/data_e.xlsx
+++ b/Random_forest_Efrain/data_e.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\castro_shiny\Random_forest_Efrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89764771-2EBD-4DBD-8728-A7D2F41904DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1065,37 +1066,37 @@
     <t>VV</t>
   </si>
   <si>
-    <t>clay_15-30cm_mean</t>
+    <t>SOC_Modelado</t>
   </si>
   <si>
-    <t>nitrogen_15-30cm_mean</t>
+    <t>claymean</t>
   </si>
   <si>
-    <t>ocd_15-30cm_mean</t>
+    <t>nitrogenmean</t>
   </si>
   <si>
-    <t>ocs_0-30cm_mean</t>
+    <t>ocdmean</t>
   </si>
   <si>
-    <t>phh2o_15-30cm_mean</t>
+    <t>ocsmean</t>
   </si>
   <si>
-    <t>sand_15-30cm_mean</t>
+    <t>phh2omean</t>
   </si>
   <si>
-    <t>silt_15-30cm_mean</t>
+    <t>sandmean</t>
   </si>
   <si>
-    <t>soc_15-30cm_mean</t>
+    <t>siltmean</t>
   </si>
   <si>
-    <t>SOC_Modelado</t>
+    <t>socmean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1269,7 +1270,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1381,22 +1382,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:H278" totalsRowShown="0">
-  <autoFilter ref="A1:H278"/>
-  <sortState ref="A2:H278">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla13" displayName="Tabla13" ref="A1:H278" totalsRowShown="0">
+  <autoFilter ref="A1:H278" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H278">
     <sortCondition descending="1" ref="H1:H278"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Class_INF"/>
-    <tableColumn id="3" name="POINT_X"/>
-    <tableColumn id="4" name="POINT_Y"/>
-    <tableColumn id="5" name="Parcela"/>
-    <tableColumn id="6" name="SOC_TCH"/>
-    <tableColumn id="9" name="Carbon_modelado2"/>
-    <tableColumn id="7" name="Residuos" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Class_INF"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="POINT_X"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="POINT_Y"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parcela"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SOC_TCH"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Carbon_modelado2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Residuos" dataDxfId="6">
       <calculatedColumnFormula>Tabla13[[#This Row],[SOC_TCH]]-Tabla13[[#This Row],[Carbon_modelado2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="%_residuos" dataDxfId="5" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="%_residuos" dataDxfId="5">
       <calculatedColumnFormula>Tabla13[[#This Row],[Residuos]]/Tabla13[[#This Row],[SOC_TCH]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1405,41 +1406,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:AF278" totalsRowShown="0">
-  <autoFilter ref="A1:AF278"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla5" displayName="Tabla5" ref="A1:AF278" totalsRowShown="0">
   <tableColumns count="32">
-    <tableColumn id="1" name="SOC_TCH" dataDxfId="4"/>
-    <tableColumn id="2" name="SOC_Modelado" dataDxfId="3"/>
-    <tableColumn id="3" name="Aspect"/>
-    <tableColumn id="4" name="BSI"/>
-    <tableColumn id="7" name="EVI"/>
-    <tableColumn id="8" name="Ecosystm" dataDxfId="2"/>
-    <tableColumn id="9" name="Elevation"/>
-    <tableColumn id="11" name="IBI"/>
-    <tableColumn id="12" name="Litologia" dataDxfId="1"/>
-    <tableColumn id="13" name="MNDVI"/>
-    <tableColumn id="14" name="MeanCurvature"/>
-    <tableColumn id="15" name="NDFI"/>
-    <tableColumn id="16" name="NDSI"/>
-    <tableColumn id="17" name="NDVI"/>
-    <tableColumn id="18" name="NDWBI"/>
-    <tableColumn id="19" name="NDWI"/>
-    <tableColumn id="20" name="NIRv"/>
-    <tableColumn id="26" name="Precipitacionmean"/>
-    <tableColumn id="28" name="SAVI"/>
-    <tableColumn id="29" name="Slope"/>
-    <tableColumn id="30" name="Suelo_Map" dataDxfId="0"/>
-    <tableColumn id="31" name="Temp_Cmean"/>
-    <tableColumn id="32" name="VH"/>
-    <tableColumn id="33" name="VV"/>
-    <tableColumn id="37" name="clay_15-30cm_mean"/>
-    <tableColumn id="38" name="nitrogen_15-30cm_mean"/>
-    <tableColumn id="39" name="ocd_15-30cm_mean"/>
-    <tableColumn id="40" name="ocs_0-30cm_mean"/>
-    <tableColumn id="41" name="phh2o_15-30cm_mean"/>
-    <tableColumn id="42" name="sand_15-30cm_mean"/>
-    <tableColumn id="43" name="silt_15-30cm_mean"/>
-    <tableColumn id="44" name="soc_15-30cm_mean"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="SOC_TCH" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SOC_Modelado" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Aspect"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="BSI"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EVI"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Ecosystm" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Elevation"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="IBI"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Litologia" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="MNDVI"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="MeanCurvature"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="NDFI"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="NDSI"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="NDVI"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="NDWBI"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="NDWI"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="NIRv"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="Precipitacionmean"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="SAVI"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="Slope"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="Suelo_Map" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="Temp_Cmean"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="VH"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="VV"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="claymean"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="nitrogenmean"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="ocdmean"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="ocsmean"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="phh2omean"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="sandmean"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="siltmean"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="socmean"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1741,14 +1741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y278"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
@@ -10012,14 +10012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="12"/>
     <col min="2" max="2" width="16" style="13" customWidth="1"/>
@@ -10044,7 +10044,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
         <v>320</v>
@@ -10113,28 +10113,28 @@
         <v>341</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AB1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AC1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AD1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
